--- a/VersionRecords/Version3.0.1.1/版本Bug和特性计划及评审表v3.0.1.1_发现组.xlsx
+++ b/VersionRecords/Version3.0.1.1/版本Bug和特性计划及评审表v3.0.1.1_发现组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,22 @@
   </si>
   <si>
     <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,13 +947,23 @@
       <c r="K2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42439</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
